--- a/src/Users.xlsx
+++ b/src/Users.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,6 +47,14 @@
   </si>
   <si>
     <t>guet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>t111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ha123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,8 +98,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -396,53 +407,55 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1"/>
+    <col min="4" max="4" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>111111</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>15078836346</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
-        <v>123456</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>15078836344</v>
       </c>
     </row>
